--- a/Bank/中医内科学/模拟卷/Bank_20模拟卷之二.xlsx
+++ b/Bank/中医内科学/模拟卷/Bank_20模拟卷之二.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="320">
   <si>
     <t>不属内科疾病发生的外部因素是</t>
   </si>
@@ -943,6 +943,45 @@
   </si>
   <si>
     <t>诊断：臌胀(肝肾阴虚)。分析: 愤怒及辛热之酒类易伤肝阴，肝肾同源，病久则肝肾两虚，阴损及气，气化不利，水液停聚中焦，致气机壅滞，血行受阻，气、血、水互结于中而腹大坚满，腹部青筋暴露；真阴亏虚，形体失养故形体消瘦，面色晦滞；虚火内生，则小便短少，午后潮热，口燥咽干，心烦少寐，鼻时衄血；舌红绛少津，脉弦细数为阴虚水液停聚之征。治法: 滋养肝肾, 凉血化瘀。方药：六味地黄丸或一贯煎合膈下逐瘀汤加减：熟地15g 山茱萸 10g 淮山 15g 茯苓 15g 泽泻 15g 丹皮10g( 或生地 15g 沙参 15g 麦冬 15g 枸杞 10g 当归10g 川楝 10g) 五灵脂 10g 赤芍 10g 桃仁 10g 红花10g 川芎 10g 乌药 10g 元胡 10g 香附 10g 枳壳10g 甘草 6g 藕节炭 10g 水煎服, 每日一剂。</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>六淫或疫毒;皮毛;口鼻</t>
+  </si>
+  <si>
+    <t>气血不足，阴阳亏损;气滞、血瘀、痰浊、水饮</t>
+  </si>
+  <si>
+    <t>相关脏腑;标本虚实</t>
+  </si>
+  <si>
+    <t>胃气失和，气机不利，胃失濡养</t>
+  </si>
+  <si>
+    <t>气滞、瘀血、痰饮;脾肾阳虚、肝肾阴虚</t>
+  </si>
+  <si>
+    <t>肢体关节有无疼痛</t>
+  </si>
+  <si>
+    <t>外感发热是因感受{}之邪，经{}或{}而入发病。</t>
+  </si>
+  <si>
+    <t>心悸为本虚标实之证，其本为{}，其标为{}。</t>
+  </si>
+  <si>
+    <t>眩晕的辨证要点有辨{}，辨{}。</t>
+  </si>
+  <si>
+    <t>胃痛的基本病机是{}。</t>
+  </si>
+  <si>
+    <t>鼓胀标实是指{}、{}、{}，本虚是指{}、{}。</t>
+  </si>
+  <si>
+    <t>痹病与痿病鉴别的关键症状是{}。</t>
   </si>
 </sst>
 </file>
@@ -1261,15 +1300,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K68"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4072</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1285,6 +1327,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>64</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1340,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4073</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1311,6 +1359,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>64</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1372,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4074</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1337,6 +1391,9 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1404,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4075</v>
+      </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1363,6 +1423,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +1436,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4076</v>
+      </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -1389,6 +1455,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1468,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4077</v>
+      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1415,6 +1487,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1500,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4078</v>
+      </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -1441,6 +1519,9 @@
       <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <v>64</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1532,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4079</v>
+      </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1467,6 +1551,9 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
+      <c r="G8">
+        <v>64</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1564,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4080</v>
+      </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -1493,6 +1583,9 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1596,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4081</v>
+      </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -1519,6 +1615,9 @@
       <c r="F10" t="s">
         <v>52</v>
       </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1628,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4082</v>
+      </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1545,6 +1647,9 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
+      <c r="G11">
+        <v>64</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1660,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4083</v>
+      </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -1571,6 +1679,9 @@
       <c r="F12" t="s">
         <v>63</v>
       </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1581,13 +1692,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4084</v>
+      </c>
       <c r="B13" t="s">
         <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
       </c>
+      <c r="G13">
+        <v>64</v>
+      </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1715,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4085</v>
+      </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -1614,6 +1734,9 @@
       <c r="F14" t="s">
         <v>70</v>
       </c>
+      <c r="G14">
+        <v>64</v>
+      </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1747,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4086</v>
+      </c>
       <c r="B15" t="s">
         <v>149</v>
       </c>
@@ -1640,6 +1766,9 @@
       <c r="F15" t="s">
         <v>74</v>
       </c>
+      <c r="G15">
+        <v>64</v>
+      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1779,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4087</v>
+      </c>
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -1666,6 +1798,9 @@
       <c r="F16" t="s">
         <v>79</v>
       </c>
+      <c r="G16">
+        <v>64</v>
+      </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1811,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4088</v>
+      </c>
       <c r="B17" t="s">
         <v>80</v>
       </c>
@@ -1692,6 +1830,9 @@
       <c r="F17" t="s">
         <v>84</v>
       </c>
+      <c r="G17">
+        <v>64</v>
+      </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1843,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4089</v>
+      </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -1718,6 +1862,9 @@
       <c r="F18" t="s">
         <v>87</v>
       </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1875,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4090</v>
+      </c>
       <c r="B19" t="s">
         <v>89</v>
       </c>
@@ -1744,6 +1894,9 @@
       <c r="F19" t="s">
         <v>93</v>
       </c>
+      <c r="G19">
+        <v>64</v>
+      </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1907,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4091</v>
+      </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1770,6 +1926,9 @@
       <c r="F20" t="s">
         <v>98</v>
       </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1939,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4092</v>
+      </c>
       <c r="B21" t="s">
         <v>99</v>
       </c>
@@ -1796,6 +1958,9 @@
       <c r="F21" t="s">
         <v>103</v>
       </c>
+      <c r="G21">
+        <v>64</v>
+      </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1971,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4093</v>
+      </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
@@ -1822,6 +1990,9 @@
       <c r="F22" t="s">
         <v>108</v>
       </c>
+      <c r="G22">
+        <v>64</v>
+      </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +2003,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4094</v>
+      </c>
       <c r="B23" t="s">
         <v>109</v>
       </c>
@@ -1848,6 +2022,9 @@
       <c r="F23" t="s">
         <v>113</v>
       </c>
+      <c r="G23">
+        <v>64</v>
+      </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +2035,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4095</v>
+      </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
@@ -1874,6 +2054,9 @@
       <c r="F24" t="s">
         <v>118</v>
       </c>
+      <c r="G24">
+        <v>64</v>
+      </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +2067,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4096</v>
+      </c>
       <c r="B25" t="s">
         <v>119</v>
       </c>
@@ -1900,6 +2086,9 @@
       <c r="F25" t="s">
         <v>123</v>
       </c>
+      <c r="G25">
+        <v>64</v>
+      </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +2099,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4097</v>
+      </c>
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -1926,6 +2118,9 @@
       <c r="F26" t="s">
         <v>128</v>
       </c>
+      <c r="G26">
+        <v>64</v>
+      </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +2131,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4098</v>
+      </c>
       <c r="B27" t="s">
         <v>129</v>
       </c>
@@ -1952,6 +2150,9 @@
       <c r="F27" t="s">
         <v>133</v>
       </c>
+      <c r="G27">
+        <v>64</v>
+      </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +2163,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4099</v>
+      </c>
       <c r="B28" t="s">
         <v>134</v>
       </c>
@@ -1978,6 +2182,9 @@
       <c r="F28" t="s">
         <v>138</v>
       </c>
+      <c r="G28">
+        <v>64</v>
+      </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +2195,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4100</v>
+      </c>
       <c r="B29" t="s">
         <v>139</v>
       </c>
@@ -2004,6 +2214,9 @@
       <c r="F29" t="s">
         <v>143</v>
       </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2227,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4101</v>
+      </c>
       <c r="B30" t="s">
         <v>144</v>
       </c>
@@ -2030,6 +2246,9 @@
       <c r="F30" t="s">
         <v>148</v>
       </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2259,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4102</v>
+      </c>
       <c r="B31" t="s">
         <v>150</v>
       </c>
@@ -2056,6 +2278,9 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
+      <c r="G31">
+        <v>64</v>
+      </c>
       <c r="H31" t="s">
         <v>203</v>
       </c>
@@ -2069,7 +2294,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4103</v>
+      </c>
       <c r="B32" t="s">
         <v>154</v>
       </c>
@@ -2085,6 +2313,9 @@
       <c r="F32" t="s">
         <v>227</v>
       </c>
+      <c r="G32">
+        <v>64</v>
+      </c>
       <c r="H32" t="s">
         <v>203</v>
       </c>
@@ -2098,7 +2329,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4104</v>
+      </c>
       <c r="B33" t="s">
         <v>158</v>
       </c>
@@ -2114,6 +2348,9 @@
       <c r="F33" t="s">
         <v>228</v>
       </c>
+      <c r="G33">
+        <v>64</v>
+      </c>
       <c r="H33" t="s">
         <v>203</v>
       </c>
@@ -2127,7 +2364,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4105</v>
+      </c>
       <c r="B34" t="s">
         <v>161</v>
       </c>
@@ -2143,6 +2383,9 @@
       <c r="F34" t="s">
         <v>229</v>
       </c>
+      <c r="G34">
+        <v>64</v>
+      </c>
       <c r="H34" t="s">
         <v>203</v>
       </c>
@@ -2156,7 +2399,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4106</v>
+      </c>
       <c r="B35" t="s">
         <v>162</v>
       </c>
@@ -2172,6 +2418,9 @@
       <c r="F35" t="s">
         <v>230</v>
       </c>
+      <c r="G35">
+        <v>64</v>
+      </c>
       <c r="H35" t="s">
         <v>203</v>
       </c>
@@ -2185,7 +2434,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4107</v>
+      </c>
       <c r="B36" t="s">
         <v>164</v>
       </c>
@@ -2201,6 +2453,9 @@
       <c r="F36" t="s">
         <v>231</v>
       </c>
+      <c r="G36">
+        <v>64</v>
+      </c>
       <c r="H36" t="s">
         <v>203</v>
       </c>
@@ -2214,7 +2469,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4108</v>
+      </c>
       <c r="B37" t="s">
         <v>167</v>
       </c>
@@ -2230,6 +2488,9 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37">
+        <v>64</v>
+      </c>
       <c r="H37" t="s">
         <v>203</v>
       </c>
@@ -2243,7 +2504,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4109</v>
+      </c>
       <c r="B38" t="s">
         <v>170</v>
       </c>
@@ -2259,6 +2523,9 @@
       <c r="F38" t="s">
         <v>232</v>
       </c>
+      <c r="G38">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
         <v>203</v>
       </c>
@@ -2272,7 +2539,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4110</v>
+      </c>
       <c r="B39" t="s">
         <v>172</v>
       </c>
@@ -2288,6 +2558,9 @@
       <c r="F39" t="s">
         <v>233</v>
       </c>
+      <c r="G39">
+        <v>64</v>
+      </c>
       <c r="H39" t="s">
         <v>203</v>
       </c>
@@ -2301,7 +2574,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4111</v>
+      </c>
       <c r="B40" t="s">
         <v>175</v>
       </c>
@@ -2317,6 +2593,9 @@
       <c r="F40" t="s">
         <v>234</v>
       </c>
+      <c r="G40">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
         <v>203</v>
       </c>
@@ -2330,7 +2609,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4112</v>
+      </c>
       <c r="B41" t="s">
         <v>177</v>
       </c>
@@ -2346,6 +2628,9 @@
       <c r="F41" t="s">
         <v>235</v>
       </c>
+      <c r="G41">
+        <v>64</v>
+      </c>
       <c r="H41" t="s">
         <v>203</v>
       </c>
@@ -2359,7 +2644,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4113</v>
+      </c>
       <c r="B42" t="s">
         <v>179</v>
       </c>
@@ -2375,6 +2663,9 @@
       <c r="F42" t="s">
         <v>182</v>
       </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
         <v>203</v>
       </c>
@@ -2388,7 +2679,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4114</v>
+      </c>
       <c r="B43" t="s">
         <v>184</v>
       </c>
@@ -2404,6 +2698,9 @@
       <c r="F43" t="s">
         <v>236</v>
       </c>
+      <c r="G43">
+        <v>64</v>
+      </c>
       <c r="H43" t="s">
         <v>203</v>
       </c>
@@ -2417,7 +2714,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4115</v>
+      </c>
       <c r="B44" t="s">
         <v>186</v>
       </c>
@@ -2433,6 +2733,9 @@
       <c r="F44" t="s">
         <v>237</v>
       </c>
+      <c r="G44">
+        <v>64</v>
+      </c>
       <c r="H44" t="s">
         <v>203</v>
       </c>
@@ -2446,7 +2749,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4116</v>
+      </c>
       <c r="B45" t="s">
         <v>188</v>
       </c>
@@ -2462,6 +2768,9 @@
       <c r="F45" t="s">
         <v>238</v>
       </c>
+      <c r="G45">
+        <v>64</v>
+      </c>
       <c r="H45" t="s">
         <v>203</v>
       </c>
@@ -2475,7 +2784,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4117</v>
+      </c>
       <c r="B46" t="s">
         <v>191</v>
       </c>
@@ -2491,6 +2803,9 @@
       <c r="F46" t="s">
         <v>239</v>
       </c>
+      <c r="G46">
+        <v>64</v>
+      </c>
       <c r="H46" t="s">
         <v>203</v>
       </c>
@@ -2504,7 +2819,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4118</v>
+      </c>
       <c r="B47" t="s">
         <v>193</v>
       </c>
@@ -2520,6 +2838,9 @@
       <c r="F47" t="s">
         <v>240</v>
       </c>
+      <c r="G47">
+        <v>64</v>
+      </c>
       <c r="H47" t="s">
         <v>203</v>
       </c>
@@ -2533,7 +2854,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4119</v>
+      </c>
       <c r="B48" t="s">
         <v>196</v>
       </c>
@@ -2549,6 +2873,9 @@
       <c r="F48" t="s">
         <v>241</v>
       </c>
+      <c r="G48">
+        <v>64</v>
+      </c>
       <c r="H48" t="s">
         <v>203</v>
       </c>
@@ -2562,7 +2889,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4120</v>
+      </c>
       <c r="B49" t="s">
         <v>198</v>
       </c>
@@ -2578,6 +2908,9 @@
       <c r="F49" t="s">
         <v>242</v>
       </c>
+      <c r="G49">
+        <v>64</v>
+      </c>
       <c r="H49" t="s">
         <v>203</v>
       </c>
@@ -2591,7 +2924,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4121</v>
+      </c>
       <c r="B50" t="s">
         <v>200</v>
       </c>
@@ -2607,6 +2943,9 @@
       <c r="F50" t="s">
         <v>243</v>
       </c>
+      <c r="G50">
+        <v>64</v>
+      </c>
       <c r="H50" t="s">
         <v>203</v>
       </c>
@@ -2620,93 +2959,135 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4122</v>
+      </c>
       <c r="B51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51">
+        <v>64</v>
+      </c>
+      <c r="H51" t="s">
+        <v>307</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52">
+        <v>64</v>
+      </c>
+      <c r="H52" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G53">
+        <v>64</v>
+      </c>
+      <c r="H53" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>317</v>
+      </c>
+      <c r="G54">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>307</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>307</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56">
+        <v>64</v>
+      </c>
+      <c r="H56" t="s">
+        <v>307</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4128</v>
+      </c>
+      <c r="B57" t="s">
         <v>276</v>
       </c>
-      <c r="H51" t="s">
-        <v>284</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" t="s">
-        <v>284</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>278</v>
-      </c>
-      <c r="H53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>279</v>
-      </c>
-      <c r="H54" t="s">
-        <v>284</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>292</v>
-      </c>
-      <c r="H55" t="s">
-        <v>284</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>280</v>
-      </c>
-      <c r="H56" t="s">
-        <v>284</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>281</v>
+      <c r="G57">
+        <v>64</v>
       </c>
       <c r="H57" t="s">
         <v>284</v>
@@ -2718,9 +3099,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4129</v>
+      </c>
       <c r="B58" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="G58">
+        <v>64</v>
       </c>
       <c r="H58" t="s">
         <v>284</v>
@@ -2732,9 +3119,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4130</v>
+      </c>
       <c r="B59" t="s">
-        <v>283</v>
+        <v>278</v>
+      </c>
+      <c r="G59">
+        <v>64</v>
       </c>
       <c r="H59" t="s">
         <v>284</v>
@@ -2746,9 +3139,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4131</v>
+      </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>279</v>
+      </c>
+      <c r="G60">
+        <v>64</v>
       </c>
       <c r="H60" t="s">
         <v>284</v>
@@ -2757,118 +3156,286 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G61">
+        <v>64</v>
+      </c>
+      <c r="H61" t="s">
+        <v>284</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4133</v>
+      </c>
+      <c r="B62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62">
+        <v>64</v>
+      </c>
+      <c r="H62" t="s">
+        <v>284</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>281</v>
+      </c>
+      <c r="G63">
+        <v>64</v>
+      </c>
+      <c r="H63" t="s">
+        <v>284</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64">
+        <v>64</v>
+      </c>
+      <c r="H64" t="s">
+        <v>284</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65" t="s">
+        <v>284</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+      <c r="H66" t="s">
+        <v>284</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4138</v>
+      </c>
+      <c r="B67" t="s">
         <v>289</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G67">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s">
         <v>290</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4139</v>
+      </c>
+      <c r="B68" t="s">
         <v>285</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G68">
+        <v>64</v>
+      </c>
+      <c r="H68" t="s">
         <v>290</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4140</v>
+      </c>
+      <c r="B69" t="s">
         <v>286</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G69">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s">
         <v>290</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4141</v>
+      </c>
+      <c r="B70" t="s">
         <v>287</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G70">
+        <v>64</v>
+      </c>
+      <c r="H70" t="s">
         <v>290</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4142</v>
+      </c>
+      <c r="B71" t="s">
         <v>288</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G71">
+        <v>64</v>
+      </c>
+      <c r="H71" t="s">
         <v>290</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4143</v>
+      </c>
+      <c r="B72" t="s">
         <v>300</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G72">
+        <v>64</v>
+      </c>
+      <c r="H72" t="s">
         <v>302</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4144</v>
+      </c>
+      <c r="B73" t="s">
         <v>303</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G73">
+        <v>64</v>
+      </c>
+      <c r="H73" t="s">
         <v>302</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4145</v>
+      </c>
+      <c r="B74" t="s">
         <v>305</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G74">
+        <v>64</v>
+      </c>
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>306</v>
       </c>
     </row>
